--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF61AD4-576F-4467-AE75-0C26FC889263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FFEFA-2CF9-4876-B47A-85B282DD5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF61AD4-576F-4467-AE75-0C26FC889263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="7" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>admin</t>
   </si>
@@ -51,13 +50,22 @@
   </si>
   <si>
     <t>letsdoit@123</t>
+  </si>
+  <si>
+    <t>customerLoginCrendentails</t>
+  </si>
+  <si>
+    <t>testhospital5feb@yopmail.com</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,23 +449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -474,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -494,6 +502,17 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="https___my.demio.com_managedashboard">userCredentials!#REF!</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>admin</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>testmymanagingprovider7jan@yopmail.com</t>
+  </si>
+  <si>
+    <t>FHDAMobileLogin</t>
+  </si>
+  <si>
+    <t>RegisteredWebProvider</t>
+  </si>
+  <si>
+    <t>testprovider5feb@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,8 +528,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -68,10 +68,10 @@
     <t>FHDAMobileLogin</t>
   </si>
   <si>
-    <t>RegisteredWebProvider</t>
-  </si>
-  <si>
-    <t>testprovider5feb@yopmail.com</t>
+    <t>automationWebProvider</t>
+  </si>
+  <si>
+    <t>ceyoyi9934@ptiong.com</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>admin</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>ceyoyi9934@ptiong.com</t>
+  </si>
+  <si>
+    <t>FHDCMobileLogin</t>
+  </si>
+  <si>
+    <t>testcaregiver2may@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,6 +553,17 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
